--- a/Puns.xlsx
+++ b/Puns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2611574\Documents\GitHub\Punkd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3D7017-4FBE-4841-A5CA-7F2F410DF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87B782-0A27-44D1-B6C7-A6C883639C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Rock With Guitar</t>
   </si>
@@ -138,6 +138,81 @@
   </si>
   <si>
     <t>Chicken Sees a Salad</t>
+  </si>
+  <si>
+    <t>Clock Hallway</t>
+  </si>
+  <si>
+    <t>Lucky Cat</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>Karate Pig</t>
+  </si>
+  <si>
+    <t>Grapes, Crushed</t>
+  </si>
+  <si>
+    <t>Orange Water</t>
+  </si>
+  <si>
+    <t>Wind Turbine</t>
+  </si>
+  <si>
+    <t>Pushed over in a bank</t>
+  </si>
+  <si>
+    <t>Ball fly at you</t>
+  </si>
+  <si>
+    <t>TOUCAN</t>
+  </si>
+  <si>
+    <t>Empty Podium</t>
+  </si>
+  <si>
+    <t>Melons fall from sky</t>
+  </si>
+  <si>
+    <t>Bread in cage</t>
+  </si>
+  <si>
+    <t>Big, small model, fire</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Nun</t>
+  </si>
+  <si>
+    <t>Chicken, lettuce</t>
+  </si>
+  <si>
+    <t>Paw picture</t>
+  </si>
+  <si>
+    <t>Cat covered pj's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread on cat </t>
+  </si>
+  <si>
+    <t>Mountain of cat</t>
+  </si>
+  <si>
+    <t>Cats in run down area</t>
+  </si>
+  <si>
+    <t>Cat doing math</t>
+  </si>
+  <si>
+    <t>Cat in white box</t>
+  </si>
+  <si>
+    <t>Ghost cat</t>
   </si>
 </sst>
 </file>
@@ -500,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A23F93A-8210-4DCC-98CA-D5BA97C0FEA9}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,138 +614,216 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>

--- a/Puns.xlsx
+++ b/Puns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2611574\Documents\GitHub\Punkd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87B782-0A27-44D1-B6C7-A6C883639C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69103E-12FB-4049-B84A-2C2EE7209C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Rock With Guitar</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Ghost cat</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A23F93A-8210-4DCC-98CA-D5BA97C0FEA9}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +589,7 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -594,7 +597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -610,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -618,7 +621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -626,7 +629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -634,7 +637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -642,7 +645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -650,7 +653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -658,7 +661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -666,7 +669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -674,7 +677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -682,7 +685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -690,7 +693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -698,20 +701,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -719,15 +725,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -735,7 +744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -743,7 +752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -751,7 +760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -759,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -767,7 +776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -775,7 +784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -783,7 +792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -791,7 +800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -799,7 +808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -807,7 +816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -815,7 +824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -823,7 +832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>

--- a/Puns.xlsx
+++ b/Puns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2611574\Documents\GitHub\Punkd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrinkDevsGJ\Punkd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69103E-12FB-4049-B84A-2C2EE7209C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37582BD-0DC9-4854-B303-AEFDD02B4979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
+    <workbookView xWindow="48090" yWindow="0" windowWidth="9510" windowHeight="17400" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Rock With Guitar</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Purr-anormal Activity</t>
   </si>
   <si>
-    <t>Nine-Lives</t>
-  </si>
-  <si>
     <t>Pork Chop</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Meowsic</t>
+  </si>
+  <si>
+    <t>Cat with Guitar</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,149 +618,149 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,12 +832,15 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Puns.xlsx
+++ b/Puns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrinkDevsGJ\Punkd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2611574\Documents\GitHub\Punkd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37582BD-0DC9-4854-B303-AEFDD02B4979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BCBCF-688C-4F28-8E9F-048F288E7910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48090" yWindow="0" windowWidth="9510" windowHeight="17400" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Rock With Guitar</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Pawsitive</t>
   </si>
   <si>
-    <t>Cats-Pajamas</t>
-  </si>
-  <si>
     <t>Pure-Bread Cat</t>
   </si>
   <si>
@@ -119,18 +116,12 @@
     <t>Yes We Arson</t>
   </si>
   <si>
-    <t>Sauce-eror</t>
-  </si>
-  <si>
     <t>Moss-Cow</t>
   </si>
   <si>
     <t>It's about time</t>
   </si>
   <si>
-    <t>Roamin' Catholic</t>
-  </si>
-  <si>
     <t>Ground Beef</t>
   </si>
   <si>
@@ -182,16 +173,10 @@
     <t>Cow</t>
   </si>
   <si>
-    <t>Nun</t>
-  </si>
-  <si>
     <t>Chicken, lettuce</t>
   </si>
   <si>
     <t>Paw picture</t>
-  </si>
-  <si>
-    <t>Cat covered pj's</t>
   </si>
   <si>
     <t xml:space="preserve">Bread on cat </t>
@@ -582,7 +567,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,152 +600,151 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,71 +760,63 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Puns.xlsx
+++ b/Puns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2611574\Documents\GitHub\Punkd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrinkDevsGJ\Punkd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BCBCF-688C-4F28-8E9F-048F288E7910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114176F-57DF-4880-A5A9-73C4954FC07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Rock With Guitar</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Cat with Guitar</t>
+  </si>
+  <si>
+    <t>Fin</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A23F93A-8210-4DCC-98CA-D5BA97C0FEA9}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +822,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Puns.xlsx
+++ b/Puns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrinkDevsGJ\Punkd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114176F-57DF-4880-A5A9-73C4954FC07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4148B05-0C85-4259-9830-0FFC4AFAF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6712939A-7555-4085-B4A9-150F6CF7F5EE}"/>
   </bookViews>
